--- a/ECS-Board/Rev A1/ABK-ECS - Rev A1 -MDP/ABK-ECS - Rev A1 - Board_Part_List.xlsx
+++ b/ECS-Board/Rev A1/ABK-ECS - Rev A1 -MDP/ABK-ECS - Rev A1 - Board_Part_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,9 +15,6 @@
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
   <si>
     <t>Value</t>
   </si>
@@ -96,30 +93,18 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Parts</t>
   </si>
   <si>
     <t>MPN</t>
   </si>
   <si>
-    <t>C-EUC0603</t>
-  </si>
-  <si>
-    <t>R-EU_R0603</t>
-  </si>
-  <si>
     <t>CONNECTOR</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
-    <t>LEDCHIPLED_0603</t>
-  </si>
-  <si>
     <t>CAPACITOR, European symbol</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>CPOL-EUCT3216</t>
-  </si>
-  <si>
     <t>CT3216</t>
   </si>
   <si>
@@ -300,9 +282,6 @@
     <t>C0805</t>
   </si>
   <si>
-    <t>MCMT21N220F250CT</t>
-  </si>
-  <si>
     <t>STPS3L40UF</t>
   </si>
   <si>
@@ -345,9 +324,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>CHIP-LED0603</t>
-  </si>
-  <si>
     <t>TLP283-4</t>
   </si>
   <si>
@@ -411,15 +387,9 @@
     <t>J3</t>
   </si>
   <si>
-    <t>C-EUC0805</t>
-  </si>
-  <si>
     <t>R22</t>
   </si>
   <si>
-    <t>LEDCHIP-LED0603</t>
-  </si>
-  <si>
     <t>U10</t>
   </si>
   <si>
@@ -471,9 +441,6 @@
     <t>LED2, LED7</t>
   </si>
   <si>
-    <t>LED5, LED6</t>
-  </si>
-  <si>
     <t>C19, C20</t>
   </si>
   <si>
@@ -519,9 +486,6 @@
     <t>R10, R13, R14, R31, R66, R67, R68, R69, R70, R71, R72, R73, R74</t>
   </si>
   <si>
-    <t>R15, R16</t>
-  </si>
-  <si>
     <t>R19, R20, R24</t>
   </si>
   <si>
@@ -535,6 +499,12 @@
   </si>
   <si>
     <t>J4, J7</t>
+  </si>
+  <si>
+    <t>MC0805X226M6R3CT</t>
+  </si>
+  <si>
+    <t>OVS-0608</t>
   </si>
 </sst>
 </file>
@@ -550,18 +520,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -659,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -667,9 +631,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,31 +648,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,12 +690,19 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -763,9 +723,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -801,9 +761,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -837,9 +797,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -873,9 +833,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -909,9 +869,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -945,45 +905,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1095,18 +1019,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G44" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="8">
-  <autoFilter ref="A1:G44"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="8">
+  <autoFilter ref="A1:F42"/>
+  <sortState ref="A2:F42">
+    <sortCondition ref="D1:D42"/>
+  </sortState>
+  <tableColumns count="6">
     <tableColumn id="1" name="Qty" dataDxfId="7"/>
     <tableColumn id="2" name="Value" dataDxfId="6"/>
-    <tableColumn id="3" name="Device" dataDxfId="5"/>
-    <tableColumn id="4" name="Package" dataDxfId="4"/>
-    <tableColumn id="5" name="Parts" dataDxfId="3"/>
-    <tableColumn id="6" name="Description" dataDxfId="2"/>
-    <tableColumn id="7" name="MPN" dataDxfId="1"/>
+    <tableColumn id="4" name="Package" dataDxfId="5"/>
+    <tableColumn id="5" name="Parts" dataDxfId="4"/>
+    <tableColumn id="6" name="Description" dataDxfId="3"/>
+    <tableColumn id="7" name="MPN" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1432,15 +1358,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,7 +1383,7 @@
       </c>
       <c r="B10" s="3">
         <f ca="1">TODAY()</f>
-        <v>42801</v>
+        <v>42814</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,1063 +1405,891 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="109.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="B3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="13">
-        <v>74477410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="16">
-        <v>744774115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+        <v>123</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1647397</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2007161</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2007041</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="13">
+        <v>74477410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="13">
+        <v>744774115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>1</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="16">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="E21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="B24" s="12">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12">
+        <v>100</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>3</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2007041</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="B27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>5</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>1</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>1</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>2</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>1</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>1</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1647397</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>1</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>1</v>
-      </c>
-      <c r="B26" s="12">
-        <v>3000</v>
-      </c>
-      <c r="C26" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D26" s="12">
-        <v>3000</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
-        <v>1</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>1</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1757242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>12</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>4</v>
+      </c>
+      <c r="B30" s="12">
+        <v>330</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>2</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>2</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>2</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>12</v>
-      </c>
-      <c r="B33" s="15">
-        <v>100</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+        <v>66</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>2</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>2</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>13</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="16" t="s">
+      <c r="B37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>5</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>1</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>1</v>
+      </c>
+      <c r="B41" s="12">
+        <v>3000</v>
+      </c>
+      <c r="C41" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>2</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
-        <v>3</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>2</v>
-      </c>
-      <c r="B40" s="12">
-        <v>33</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>4</v>
-      </c>
-      <c r="B41" s="15">
-        <v>330</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>19</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>2</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="15">
-        <v>2007161</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="E41" s="12"/>
+      <c r="F41" s="13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>1</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="B42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1757242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
